--- a/day4_统计函数/18.xlsx
+++ b/day4_统计函数/18.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,11 +484,6 @@
           <t>z</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>level</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -530,16 +525,13 @@
       <c r="K2" t="n">
         <v>6.38</v>
       </c>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>24131</v>
+        <v>25998</v>
       </c>
       <c r="B3" t="n">
-        <v>3.24</v>
+        <v>4.01</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -548,7 +540,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>I</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -557,42 +549,39 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>62.1</v>
+        <v>61</v>
       </c>
       <c r="G3" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H3" t="n">
-        <v>12300</v>
+        <v>15223</v>
       </c>
       <c r="I3" t="n">
-        <v>9.44</v>
+        <v>10.14</v>
       </c>
       <c r="J3" t="n">
-        <v>9.4</v>
+        <v>10.1</v>
       </c>
       <c r="K3" t="n">
-        <v>5.85</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1</v>
+        <v>6.17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>24297</v>
+        <v>25999</v>
       </c>
       <c r="B4" t="n">
-        <v>3.22</v>
+        <v>4.01</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ideal</t>
+          <t>Premium</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>J</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -601,42 +590,39 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>62.6</v>
+        <v>62.5</v>
       </c>
       <c r="G4" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="H4" t="n">
-        <v>12545</v>
+        <v>15223</v>
       </c>
       <c r="I4" t="n">
-        <v>9.49</v>
+        <v>10.02</v>
       </c>
       <c r="J4" t="n">
-        <v>9.42</v>
+        <v>9.94</v>
       </c>
       <c r="K4" t="n">
-        <v>5.92</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1</v>
+        <v>6.24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>24328</v>
+        <v>26444</v>
       </c>
       <c r="B5" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ideal</t>
+          <t>Very Good</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>I</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -645,33 +631,30 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>62.8</v>
+        <v>63.3</v>
       </c>
       <c r="G5" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H5" t="n">
-        <v>12587</v>
+        <v>15984</v>
       </c>
       <c r="I5" t="n">
-        <v>9.65</v>
+        <v>10.01</v>
       </c>
       <c r="J5" t="n">
-        <v>9.59</v>
+        <v>9.94</v>
       </c>
       <c r="K5" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
+        <v>6.31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>25998</v>
+        <v>26534</v>
       </c>
       <c r="B6" t="n">
-        <v>4.01</v>
+        <v>3.67</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -689,42 +672,39 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>61</v>
+        <v>62.4</v>
       </c>
       <c r="G6" t="n">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="H6" t="n">
-        <v>15223</v>
+        <v>16193</v>
       </c>
       <c r="I6" t="n">
-        <v>10.14</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="J6" t="n">
-        <v>10.1</v>
+        <v>9.81</v>
       </c>
       <c r="K6" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
+        <v>6.13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>25999</v>
+        <v>27130</v>
       </c>
       <c r="B7" t="n">
-        <v>4.01</v>
+        <v>4.13</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Fair</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>J</t>
+          <t>H</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -733,33 +713,30 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>62.5</v>
+        <v>64.8</v>
       </c>
       <c r="G7" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H7" t="n">
-        <v>15223</v>
+        <v>17329</v>
       </c>
       <c r="I7" t="n">
-        <v>10.02</v>
+        <v>10</v>
       </c>
       <c r="J7" t="n">
-        <v>9.94</v>
+        <v>9.85</v>
       </c>
       <c r="K7" t="n">
-        <v>6.24</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
+        <v>6.43</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>26431</v>
+        <v>27415</v>
       </c>
       <c r="B8" t="n">
-        <v>3.4</v>
+        <v>5.01</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -768,7 +745,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>J</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -777,42 +754,39 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>66.8</v>
+        <v>65.5</v>
       </c>
       <c r="G8" t="n">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="H8" t="n">
-        <v>15964</v>
+        <v>18018</v>
       </c>
       <c r="I8" t="n">
-        <v>9.42</v>
+        <v>10.74</v>
       </c>
       <c r="J8" t="n">
-        <v>9.34</v>
+        <v>10.54</v>
       </c>
       <c r="K8" t="n">
-        <v>6.27</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
+        <v>6.98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>26444</v>
+        <v>27630</v>
       </c>
       <c r="B9" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Very Good</t>
+          <t>Fair</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>J</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -821,33 +795,30 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>63.3</v>
+        <v>65.8</v>
       </c>
       <c r="G9" t="n">
         <v>58</v>
       </c>
       <c r="H9" t="n">
-        <v>15984</v>
+        <v>18531</v>
       </c>
       <c r="I9" t="n">
-        <v>10.01</v>
+        <v>10.23</v>
       </c>
       <c r="J9" t="n">
-        <v>9.94</v>
+        <v>10.16</v>
       </c>
       <c r="K9" t="n">
-        <v>6.31</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
+        <v>6.72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>26534</v>
+        <v>27679</v>
       </c>
       <c r="B10" t="n">
-        <v>3.67</v>
+        <v>3.51</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -856,210 +827,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>J</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>I1</t>
+          <t>VS2</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>62.4</v>
+        <v>62.5</v>
       </c>
       <c r="G10" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="H10" t="n">
-        <v>16193</v>
+        <v>18701</v>
       </c>
       <c r="I10" t="n">
-        <v>9.859999999999999</v>
+        <v>9.66</v>
       </c>
       <c r="J10" t="n">
-        <v>9.81</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>27130</v>
-      </c>
-      <c r="B11" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Fair</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>I1</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>64.8</v>
-      </c>
-      <c r="G11" t="n">
-        <v>61</v>
-      </c>
-      <c r="H11" t="n">
-        <v>17329</v>
-      </c>
-      <c r="I11" t="n">
-        <v>10</v>
-      </c>
-      <c r="J11" t="n">
-        <v>9.85</v>
-      </c>
-      <c r="K11" t="n">
-        <v>6.43</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>27415</v>
-      </c>
-      <c r="B12" t="n">
-        <v>5.01</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Fair</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>J</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>I1</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>65.5</v>
-      </c>
-      <c r="G12" t="n">
-        <v>59</v>
-      </c>
-      <c r="H12" t="n">
-        <v>18018</v>
-      </c>
-      <c r="I12" t="n">
-        <v>10.74</v>
-      </c>
-      <c r="J12" t="n">
-        <v>10.54</v>
-      </c>
-      <c r="K12" t="n">
-        <v>6.98</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>27630</v>
-      </c>
-      <c r="B13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Fair</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>J</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>I1</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>65.8</v>
-      </c>
-      <c r="G13" t="n">
-        <v>58</v>
-      </c>
-      <c r="H13" t="n">
-        <v>18531</v>
-      </c>
-      <c r="I13" t="n">
-        <v>10.23</v>
-      </c>
-      <c r="J13" t="n">
-        <v>10.16</v>
-      </c>
-      <c r="K13" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>27679</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>J</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>VS2</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="G14" t="n">
-        <v>59</v>
-      </c>
-      <c r="H14" t="n">
-        <v>18701</v>
-      </c>
-      <c r="I14" t="n">
-        <v>9.66</v>
-      </c>
-      <c r="J14" t="n">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="K14" t="n">
         <v>6.03</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
